--- a/uploads/Mieter.xlsx
+++ b/uploads/Mieter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumente\python\sabanoflaz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1CF076-9E59-487B-9C29-4EF3F4D87EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85FB7F99-DA53-4A5D-8942-A2DB4E07CC62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mieter" sheetId="1" r:id="rId1"/>
@@ -50,9 +50,6 @@
     <t>Feb</t>
   </si>
   <si>
-    <t>Mär</t>
-  </si>
-  <si>
     <t>Apr</t>
   </si>
   <si>
@@ -900,6 +897,9 @@
   </si>
   <si>
     <t>Zahl-Datum12</t>
+  </si>
+  <si>
+    <t>Mrz</t>
   </si>
 </sst>
 </file>
@@ -2455,6 +2455,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -2462,15 +2471,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -2490,7 +2490,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D7E3A6C-E465-4F0D-B58A-6EFB54642C4C}" name="Tabelle1" displayName="Tabelle1" ref="A1:AC199" totalsRowShown="0" headerRowBorderDxfId="30" tableBorderDxfId="31" totalsRowBorderDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7D7E3A6C-E465-4F0D-B58A-6EFB54642C4C}" name="Tabelle1" displayName="Tabelle1" ref="A1:AC199" totalsRowShown="0" headerRowBorderDxfId="31" tableBorderDxfId="30" totalsRowBorderDxfId="29">
   <autoFilter ref="A1:AC199" xr:uid="{7D7E3A6C-E465-4F0D-B58A-6EFB54642C4C}"/>
   <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{FED383DF-EE09-44E9-8A46-5EE262F6A658}" name="Eigentümer/Mieter" dataDxfId="28"/>
@@ -2501,7 +2501,7 @@
     <tableColumn id="6" xr3:uid="{E1E37B0E-FA9D-499B-A55B-5A48D4274F01}" name="Zahl-Datum" dataDxfId="23"/>
     <tableColumn id="7" xr3:uid="{D6DED8BC-9BFB-4CF2-B48C-96229E41DC76}" name="Feb" dataDxfId="22"/>
     <tableColumn id="8" xr3:uid="{3E1DE594-B8C2-49AC-8B08-369150A95DDB}" name="Zahl-Datum2" dataDxfId="21"/>
-    <tableColumn id="9" xr3:uid="{95E00FAC-D196-407D-9B83-644752C58CFC}" name="Mär" dataDxfId="20"/>
+    <tableColumn id="9" xr3:uid="{95E00FAC-D196-407D-9B83-644752C58CFC}" name="Mrz" dataDxfId="20"/>
     <tableColumn id="10" xr3:uid="{8AD4BD20-F0A1-487B-AE84-BAE93FE5CC4D}" name="Zahl-Datum3" dataDxfId="19"/>
     <tableColumn id="11" xr3:uid="{FB92E81F-5D29-45EE-86C3-F3D4F0A51577}" name="Apr" dataDxfId="18"/>
     <tableColumn id="12" xr3:uid="{3A302978-D753-4620-913A-D40DB2CE4774}" name="Zahl-Datum4" dataDxfId="17"/>
@@ -2816,40 +2816,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="42.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="3" width="41.5703125" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.5546875" style="29" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="15" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" style="15" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" style="15" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" style="6" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" style="15" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" style="6" customWidth="1"/>
-    <col min="15" max="15" width="9.28515625" style="15" customWidth="1"/>
-    <col min="16" max="16" width="9.28515625" style="6" customWidth="1"/>
-    <col min="17" max="17" width="9.28515625" style="15" customWidth="1"/>
-    <col min="18" max="18" width="9.28515625" style="6" customWidth="1"/>
-    <col min="19" max="19" width="9.28515625" style="15" customWidth="1"/>
-    <col min="20" max="20" width="9.28515625" style="6" customWidth="1"/>
-    <col min="21" max="21" width="9.28515625" style="15" customWidth="1"/>
-    <col min="22" max="22" width="9.28515625" style="6" customWidth="1"/>
-    <col min="23" max="23" width="9.28515625" style="15" customWidth="1"/>
-    <col min="24" max="24" width="10.28515625" style="6" customWidth="1"/>
-    <col min="25" max="25" width="9.28515625" style="15" customWidth="1"/>
-    <col min="26" max="26" width="10.28515625" style="6" customWidth="1"/>
-    <col min="27" max="27" width="9.28515625" style="15" customWidth="1"/>
-    <col min="28" max="28" width="10.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="15" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" style="15" customWidth="1"/>
+    <col min="10" max="10" width="9.33203125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" style="15" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" style="15" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" style="6" customWidth="1"/>
+    <col min="15" max="15" width="9.33203125" style="15" customWidth="1"/>
+    <col min="16" max="16" width="9.33203125" style="6" customWidth="1"/>
+    <col min="17" max="17" width="9.33203125" style="15" customWidth="1"/>
+    <col min="18" max="18" width="9.33203125" style="6" customWidth="1"/>
+    <col min="19" max="19" width="9.33203125" style="15" customWidth="1"/>
+    <col min="20" max="20" width="9.33203125" style="6" customWidth="1"/>
+    <col min="21" max="21" width="9.33203125" style="15" customWidth="1"/>
+    <col min="22" max="22" width="9.33203125" style="6" customWidth="1"/>
+    <col min="23" max="23" width="9.33203125" style="15" customWidth="1"/>
+    <col min="24" max="24" width="10.33203125" style="6" customWidth="1"/>
+    <col min="25" max="25" width="9.33203125" style="15" customWidth="1"/>
+    <col min="26" max="26" width="10.33203125" style="6" customWidth="1"/>
+    <col min="27" max="27" width="9.33203125" style="15" customWidth="1"/>
+    <col min="28" max="28" width="10.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C1" s="37" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D1" s="38" t="s">
         <v>1</v>
@@ -2869,88 +2869,88 @@
         <v>2</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G1" s="41" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="40" t="s">
+        <v>276</v>
+      </c>
+      <c r="I1" s="42" t="s">
+        <v>287</v>
+      </c>
+      <c r="J1" s="40" t="s">
         <v>277</v>
       </c>
-      <c r="I1" s="42" t="s">
+      <c r="K1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="L1" s="40" t="s">
         <v>278</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="M1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="N1" s="40" t="s">
         <v>279</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="O1" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="40" t="s">
+      <c r="P1" s="40" t="s">
         <v>280</v>
       </c>
-      <c r="O1" s="45" t="s">
+      <c r="Q1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="40" t="s">
+      <c r="R1" s="40" t="s">
         <v>281</v>
       </c>
-      <c r="Q1" s="46" t="s">
+      <c r="S1" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="40" t="s">
+      <c r="T1" s="40" t="s">
         <v>282</v>
       </c>
-      <c r="S1" s="47" t="s">
+      <c r="U1" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="40" t="s">
+      <c r="V1" s="40" t="s">
         <v>283</v>
       </c>
-      <c r="U1" s="48" t="s">
+      <c r="W1" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="40" t="s">
+      <c r="X1" s="40" t="s">
         <v>284</v>
       </c>
-      <c r="W1" s="49" t="s">
+      <c r="Y1" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="40" t="s">
+      <c r="Z1" s="40" t="s">
         <v>285</v>
       </c>
-      <c r="Y1" s="50" t="s">
+      <c r="AA1" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="40" t="s">
+      <c r="AB1" s="40" t="s">
         <v>286</v>
       </c>
-      <c r="AA1" s="51" t="s">
+      <c r="AC1" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="AB1" s="40" t="s">
-        <v>287</v>
-      </c>
-      <c r="AC1" s="52" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="16"/>
       <c r="F2" s="2"/>
@@ -2981,16 +2981,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" s="31"/>
       <c r="C3" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E3" s="16"/>
       <c r="F3" s="2"/>
@@ -3021,13 +3021,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="31"/>
       <c r="C4" s="30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D4" s="31"/>
       <c r="E4" s="16"/>
@@ -3059,16 +3059,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="31"/>
       <c r="C5" s="30" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="2"/>
@@ -3099,13 +3099,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="31"/>
       <c r="C6" s="30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D6" s="31"/>
       <c r="E6" s="16"/>
@@ -3137,13 +3137,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="31"/>
       <c r="C7" s="30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D7" s="31"/>
       <c r="E7" s="16"/>
@@ -3176,16 +3176,16 @@
       </c>
       <c r="AD7" s="28"/>
     </row>
-    <row r="8" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="31"/>
       <c r="C8" s="30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="2"/>
@@ -3216,16 +3216,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" s="31"/>
       <c r="C9" s="30" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="2"/>
@@ -3256,16 +3256,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="31"/>
       <c r="C10" s="30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="2"/>
@@ -3296,16 +3296,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11" s="31"/>
       <c r="C11" s="30" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="2"/>
@@ -3336,16 +3336,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" s="31"/>
       <c r="C12" s="30" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="2"/>
@@ -3376,16 +3376,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="31"/>
       <c r="C13" s="30" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" s="16"/>
       <c r="F13" s="2"/>
@@ -3416,13 +3416,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14" s="31"/>
       <c r="C14" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D14" s="31"/>
       <c r="E14" s="16"/>
@@ -3454,16 +3454,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" s="31"/>
       <c r="C15" s="30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="2"/>
@@ -3494,13 +3494,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B16" s="31"/>
       <c r="C16" s="30" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D16" s="31"/>
       <c r="E16" s="16"/>
@@ -3532,13 +3532,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17" s="31"/>
       <c r="C17" s="30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D17" s="31"/>
       <c r="E17" s="16"/>
@@ -3570,13 +3570,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="30"/>
       <c r="C18" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D18" s="31"/>
       <c r="E18" s="16"/>
@@ -3608,13 +3608,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" s="31"/>
       <c r="C19" s="30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D19" s="31"/>
       <c r="E19" s="16"/>
@@ -3646,13 +3646,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B20" s="30"/>
       <c r="C20" s="30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D20" s="31"/>
       <c r="E20" s="16"/>
@@ -3684,13 +3684,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B21" s="31"/>
       <c r="C21" s="30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D21" s="31"/>
       <c r="E21" s="16"/>
@@ -3722,13 +3722,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22" s="31"/>
       <c r="C22" s="30" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D22" s="31"/>
       <c r="E22" s="16"/>
@@ -3760,13 +3760,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23" s="31"/>
       <c r="C23" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D23" s="31"/>
       <c r="E23" s="16"/>
@@ -3798,13 +3798,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B24" s="31"/>
       <c r="C24" s="30" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D24" s="31"/>
       <c r="E24" s="16"/>
@@ -3836,13 +3836,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B25" s="31"/>
       <c r="C25" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D25" s="31"/>
       <c r="E25" s="16"/>
@@ -3874,13 +3874,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B26" s="31"/>
       <c r="C26" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D26" s="31"/>
       <c r="E26" s="16"/>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B27" s="31"/>
       <c r="C27" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D27" s="31"/>
       <c r="E27" s="16"/>
@@ -3950,13 +3950,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B28" s="31"/>
       <c r="C28" s="30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D28" s="31"/>
       <c r="E28" s="16"/>
@@ -3988,13 +3988,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B29" s="31"/>
       <c r="C29" s="30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D29" s="31"/>
       <c r="E29" s="16"/>
@@ -4026,13 +4026,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B30" s="31"/>
       <c r="C30" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D30" s="31"/>
       <c r="E30" s="16"/>
@@ -4064,13 +4064,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B31" s="31"/>
       <c r="C31" s="30" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D31" s="31"/>
       <c r="E31" s="16"/>
@@ -4102,13 +4102,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B32" s="31"/>
       <c r="C32" s="30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D32" s="31"/>
       <c r="E32" s="16"/>
@@ -4140,13 +4140,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B33" s="31"/>
       <c r="C33" s="30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D33" s="31"/>
       <c r="E33" s="16"/>
@@ -4178,15 +4178,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:29" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D34" s="31"/>
       <c r="E34" s="16"/>
@@ -4218,15 +4218,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D35" s="31"/>
       <c r="E35" s="16"/>
@@ -4258,13 +4258,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A36" s="33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B36" s="31"/>
       <c r="C36" s="30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D36" s="31"/>
       <c r="E36" s="16"/>
@@ -4296,13 +4296,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A37" s="33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B37" s="31"/>
       <c r="C37" s="30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D37" s="31"/>
       <c r="E37" s="16"/>
@@ -4334,13 +4334,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A38" s="33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B38" s="31"/>
       <c r="C38" s="30" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D38" s="31"/>
       <c r="E38" s="16"/>
@@ -4372,13 +4372,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A39" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B39" s="31"/>
       <c r="C39" s="30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D39" s="31"/>
       <c r="E39" s="16"/>
@@ -4410,13 +4410,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A40" s="33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B40" s="31"/>
       <c r="C40" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D40" s="31"/>
       <c r="E40" s="16"/>
@@ -4448,13 +4448,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A41" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B41" s="31"/>
       <c r="C41" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D41" s="31"/>
       <c r="E41" s="16"/>
@@ -4486,13 +4486,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A42" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B42" s="31"/>
       <c r="C42" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D42" s="31"/>
       <c r="E42" s="16"/>
@@ -4524,13 +4524,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A43" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B43" s="31"/>
       <c r="C43" s="30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D43" s="31"/>
       <c r="E43" s="16"/>
@@ -4562,13 +4562,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A44" s="33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B44" s="31"/>
       <c r="C44" s="30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D44" s="31"/>
       <c r="E44" s="16"/>
@@ -4600,13 +4600,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A45" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B45" s="31"/>
       <c r="C45" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D45" s="31"/>
       <c r="E45" s="16"/>
@@ -4638,13 +4638,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A46" s="33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B46" s="31"/>
       <c r="C46" s="30" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D46" s="31"/>
       <c r="E46" s="16"/>
@@ -4676,13 +4676,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A47" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B47" s="31"/>
       <c r="C47" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D47" s="31"/>
       <c r="E47" s="16"/>
@@ -4714,13 +4714,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A48" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B48" s="31"/>
       <c r="C48" s="30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D48" s="31"/>
       <c r="E48" s="16"/>
@@ -4752,13 +4752,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A49" s="33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B49" s="31"/>
       <c r="C49" s="30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D49" s="31"/>
       <c r="E49" s="16"/>
@@ -4790,13 +4790,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A50" s="33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B50" s="31"/>
       <c r="C50" s="30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D50" s="31"/>
       <c r="E50" s="16"/>
@@ -4828,13 +4828,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A51" s="33" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B51" s="31"/>
       <c r="C51" s="30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D51" s="31"/>
       <c r="E51" s="16"/>
@@ -4866,13 +4866,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A52" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B52" s="31"/>
       <c r="C52" s="30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D52" s="31"/>
       <c r="E52" s="16"/>
@@ -4904,13 +4904,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A53" s="33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B53" s="31"/>
       <c r="C53" s="30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D53" s="31"/>
       <c r="E53" s="16"/>
@@ -4942,13 +4942,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A54" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B54" s="31"/>
       <c r="C54" s="30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D54" s="31"/>
       <c r="E54" s="16"/>
@@ -4980,13 +4980,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A55" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B55" s="31"/>
       <c r="C55" s="30" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D55" s="31"/>
       <c r="E55" s="16"/>
@@ -5018,13 +5018,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A56" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B56" s="31"/>
       <c r="C56" s="30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D56" s="31"/>
       <c r="E56" s="16"/>
@@ -5056,13 +5056,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A57" s="33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B57" s="31"/>
       <c r="C57" s="30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D57" s="31"/>
       <c r="E57" s="16"/>
@@ -5094,13 +5094,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A58" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B58" s="31"/>
       <c r="C58" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D58" s="31"/>
       <c r="E58" s="16"/>
@@ -5132,13 +5132,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A59" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B59" s="31"/>
       <c r="C59" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D59" s="31"/>
       <c r="E59" s="16"/>
@@ -5170,13 +5170,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A60" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B60" s="31"/>
       <c r="C60" s="30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D60" s="31"/>
       <c r="E60" s="16"/>
@@ -5208,13 +5208,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A61" s="33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B61" s="31"/>
       <c r="C61" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D61" s="31"/>
       <c r="E61" s="16"/>
@@ -5246,13 +5246,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A62" s="33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B62" s="31"/>
       <c r="C62" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D62" s="31"/>
       <c r="E62" s="16"/>
@@ -5284,13 +5284,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A63" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B63" s="31"/>
       <c r="C63" s="30" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D63" s="31"/>
       <c r="E63" s="16"/>
@@ -5322,13 +5322,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A64" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B64" s="31"/>
       <c r="C64" s="30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D64" s="31"/>
       <c r="E64" s="16"/>
@@ -5360,13 +5360,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A65" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B65" s="31"/>
       <c r="C65" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D65" s="31"/>
       <c r="E65" s="16"/>
@@ -5398,13 +5398,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A66" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B66" s="31"/>
       <c r="C66" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D66" s="31"/>
       <c r="E66" s="16"/>
@@ -5436,13 +5436,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A67" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B67" s="31"/>
       <c r="C67" s="30" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D67" s="31"/>
       <c r="E67" s="16"/>
@@ -5474,13 +5474,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A68" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B68" s="31"/>
       <c r="C68" s="30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D68" s="31"/>
       <c r="E68" s="16"/>
@@ -5512,13 +5512,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A69" s="33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B69" s="31"/>
       <c r="C69" s="30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D69" s="31"/>
       <c r="E69" s="16"/>
@@ -5550,13 +5550,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A70" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B70" s="31"/>
       <c r="C70" s="30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D70" s="31"/>
       <c r="E70" s="16"/>
@@ -5588,13 +5588,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A71" s="33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B71" s="31"/>
       <c r="C71" s="30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D71" s="31"/>
       <c r="E71" s="16"/>
@@ -5626,13 +5626,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A72" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B72" s="31"/>
       <c r="C72" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D72" s="31"/>
       <c r="E72" s="16"/>
@@ -5664,13 +5664,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A73" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B73" s="31"/>
       <c r="C73" s="30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D73" s="31"/>
       <c r="E73" s="16"/>
@@ -5702,13 +5702,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A74" s="33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B74" s="31"/>
       <c r="C74" s="30" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D74" s="31"/>
       <c r="E74" s="16"/>
@@ -5740,13 +5740,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A75" s="33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B75" s="31"/>
       <c r="C75" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D75" s="31"/>
       <c r="E75" s="16"/>
@@ -5778,13 +5778,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A76" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B76" s="31"/>
       <c r="C76" s="30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D76" s="31"/>
       <c r="E76" s="16"/>
@@ -5816,13 +5816,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A77" s="33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B77" s="31"/>
       <c r="C77" s="30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D77" s="31"/>
       <c r="E77" s="16"/>
@@ -5854,13 +5854,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A78" s="33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B78" s="31"/>
       <c r="C78" s="30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D78" s="31"/>
       <c r="E78" s="16"/>
@@ -5892,13 +5892,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A79" s="33" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B79" s="31"/>
       <c r="C79" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D79" s="31"/>
       <c r="E79" s="16"/>
@@ -5930,13 +5930,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A80" s="33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B80" s="31"/>
       <c r="C80" s="30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D80" s="31"/>
       <c r="E80" s="16"/>
@@ -5968,13 +5968,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A81" s="33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B81" s="31"/>
       <c r="C81" s="30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D81" s="31"/>
       <c r="E81" s="16"/>
@@ -6006,13 +6006,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A82" s="33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B82" s="31"/>
       <c r="C82" s="30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D82" s="31"/>
       <c r="E82" s="16"/>
@@ -6044,13 +6044,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A83" s="33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B83" s="31"/>
       <c r="C83" s="30" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D83" s="31"/>
       <c r="E83" s="16"/>
@@ -6082,13 +6082,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A84" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B84" s="31"/>
       <c r="C84" s="30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D84" s="31"/>
       <c r="E84" s="16"/>
@@ -6120,13 +6120,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A85" s="33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B85" s="31"/>
       <c r="C85" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D85" s="31"/>
       <c r="E85" s="16"/>
@@ -6158,13 +6158,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A86" s="33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B86" s="31"/>
       <c r="C86" s="30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D86" s="31"/>
       <c r="E86" s="16"/>
@@ -6196,13 +6196,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A87" s="33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B87" s="31"/>
       <c r="C87" s="30" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D87" s="31"/>
       <c r="E87" s="16"/>
@@ -6234,13 +6234,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A88" s="33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B88" s="31"/>
       <c r="C88" s="30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D88" s="31"/>
       <c r="E88" s="16"/>
@@ -6272,13 +6272,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A89" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B89" s="31"/>
       <c r="C89" s="30" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D89" s="31"/>
       <c r="E89" s="16"/>
@@ -6310,13 +6310,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A90" s="33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B90" s="31"/>
       <c r="C90" s="30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D90" s="31"/>
       <c r="E90" s="16"/>
@@ -6348,15 +6348,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A91" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B91" s="31" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C91" s="31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D91" s="31"/>
       <c r="E91" s="16"/>
@@ -6388,15 +6388,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A92" s="33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B92" s="31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C92" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D92" s="31"/>
       <c r="E92" s="16"/>
@@ -6428,15 +6428,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A93" s="33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B93" s="31" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C93" s="32" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D93" s="31"/>
       <c r="E93" s="16"/>
@@ -6468,13 +6468,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A94" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B94" s="31"/>
       <c r="C94" s="30" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D94" s="31"/>
       <c r="E94" s="16"/>
@@ -6506,13 +6506,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A95" s="33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B95" s="31"/>
       <c r="C95" s="30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D95" s="31"/>
       <c r="E95" s="16"/>
@@ -6544,13 +6544,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A96" s="33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B96" s="31"/>
       <c r="C96" s="30" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D96" s="31"/>
       <c r="E96" s="16"/>
@@ -6582,13 +6582,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A97" s="33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B97" s="31"/>
       <c r="C97" s="30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D97" s="31"/>
       <c r="E97" s="16"/>
@@ -6620,13 +6620,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A98" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B98" s="31"/>
       <c r="C98" s="30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D98" s="31"/>
       <c r="E98" s="16"/>
@@ -6658,13 +6658,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A99" s="33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B99" s="31"/>
       <c r="C99" s="30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D99" s="31"/>
       <c r="E99" s="16"/>
@@ -6696,13 +6696,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A100" s="33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B100" s="31"/>
       <c r="C100" s="30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D100" s="31"/>
       <c r="E100" s="16"/>
@@ -6734,13 +6734,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A101" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B101" s="31"/>
       <c r="C101" s="30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D101" s="31"/>
       <c r="E101" s="16"/>
@@ -6772,13 +6772,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A102" s="33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B102" s="31"/>
       <c r="C102" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D102" s="31"/>
       <c r="E102" s="16"/>
@@ -6810,13 +6810,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A103" s="33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B103" s="31"/>
       <c r="C103" s="30" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D103" s="31"/>
       <c r="E103" s="16"/>
@@ -6848,13 +6848,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A104" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B104" s="31"/>
       <c r="C104" s="30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D104" s="31"/>
       <c r="E104" s="16"/>
@@ -6886,13 +6886,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A105" s="33" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B105" s="31"/>
       <c r="C105" s="30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D105" s="31"/>
       <c r="E105" s="16"/>
@@ -6924,13 +6924,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A106" s="33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B106" s="31"/>
       <c r="C106" s="30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D106" s="31"/>
       <c r="E106" s="16"/>
@@ -6962,13 +6962,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A107" s="33" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B107" s="31"/>
       <c r="C107" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D107" s="31"/>
       <c r="E107" s="16"/>
@@ -7000,13 +7000,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A108" s="33" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B108" s="31"/>
       <c r="C108" s="30" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D108" s="31"/>
       <c r="E108" s="16"/>
@@ -7038,13 +7038,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A109" s="33" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B109" s="31"/>
       <c r="C109" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D109" s="31"/>
       <c r="E109" s="16"/>
@@ -7076,13 +7076,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A110" s="33" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B110" s="31"/>
       <c r="C110" s="30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D110" s="31"/>
       <c r="E110" s="16"/>
@@ -7114,13 +7114,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A111" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B111" s="31"/>
       <c r="C111" s="30" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D111" s="31"/>
       <c r="E111" s="16"/>
@@ -7152,13 +7152,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A112" s="33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B112" s="31"/>
       <c r="C112" s="30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D112" s="31"/>
       <c r="E112" s="16"/>
@@ -7190,13 +7190,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A113" s="33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B113" s="31"/>
       <c r="C113" s="30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D113" s="31"/>
       <c r="E113" s="16"/>
@@ -7228,13 +7228,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A114" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B114" s="31"/>
       <c r="C114" s="30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D114" s="31"/>
       <c r="E114" s="16"/>
@@ -7266,13 +7266,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A115" s="33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B115" s="31"/>
       <c r="C115" s="30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D115" s="31"/>
       <c r="E115" s="16"/>
@@ -7304,13 +7304,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A116" s="33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B116" s="31"/>
       <c r="C116" s="30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D116" s="31"/>
       <c r="E116" s="16"/>
@@ -7342,13 +7342,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A117" s="33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B117" s="31"/>
       <c r="C117" s="30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D117" s="31"/>
       <c r="E117" s="16"/>
@@ -7380,13 +7380,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A118" s="33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B118" s="31"/>
       <c r="C118" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D118" s="31"/>
       <c r="E118" s="16"/>
@@ -7418,13 +7418,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A119" s="33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B119" s="31"/>
       <c r="C119" s="30" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D119" s="31"/>
       <c r="E119" s="16"/>
@@ -7456,13 +7456,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A120" s="33" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B120" s="31"/>
       <c r="C120" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D120" s="31"/>
       <c r="E120" s="16"/>
@@ -7494,13 +7494,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A121" s="33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B121" s="31"/>
       <c r="C121" s="30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D121" s="31"/>
       <c r="E121" s="16"/>
@@ -7532,13 +7532,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A122" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B122" s="31"/>
       <c r="C122" s="30" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D122" s="31"/>
       <c r="E122" s="16"/>
@@ -7570,13 +7570,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A123" s="33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B123" s="31"/>
       <c r="C123" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D123" s="31"/>
       <c r="E123" s="16"/>
@@ -7608,13 +7608,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A124" s="33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B124" s="31"/>
       <c r="C124" s="30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D124" s="31"/>
       <c r="E124" s="16"/>
@@ -7646,13 +7646,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A125" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B125" s="31"/>
       <c r="C125" s="30" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D125" s="31"/>
       <c r="E125" s="16"/>
@@ -7684,13 +7684,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A126" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B126" s="31"/>
       <c r="C126" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D126" s="31"/>
       <c r="E126" s="16"/>
@@ -7722,13 +7722,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A127" s="33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B127" s="31"/>
       <c r="C127" s="30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D127" s="31"/>
       <c r="E127" s="16"/>
@@ -7760,13 +7760,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A128" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B128" s="31"/>
       <c r="C128" s="30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D128" s="31"/>
       <c r="E128" s="16"/>
@@ -7798,13 +7798,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A129" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B129" s="31"/>
       <c r="C129" s="30" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D129" s="31"/>
       <c r="E129" s="16"/>
@@ -7836,13 +7836,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A130" s="33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B130" s="31"/>
       <c r="C130" s="30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D130" s="31"/>
       <c r="E130" s="16"/>
@@ -7874,13 +7874,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A131" s="33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B131" s="31"/>
       <c r="C131" s="30" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D131" s="31"/>
       <c r="E131" s="16"/>
@@ -7912,13 +7912,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A132" s="33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B132" s="31"/>
       <c r="C132" s="30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D132" s="31"/>
       <c r="E132" s="16"/>
@@ -7950,13 +7950,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A133" s="33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B133" s="31"/>
       <c r="C133" s="30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D133" s="31"/>
       <c r="E133" s="16"/>
@@ -7988,13 +7988,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A134" s="33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B134" s="31"/>
       <c r="C134" s="30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D134" s="31"/>
       <c r="E134" s="16"/>
@@ -8026,13 +8026,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A135" s="33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B135" s="31"/>
       <c r="C135" s="30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D135" s="31"/>
       <c r="E135" s="16"/>
@@ -8064,13 +8064,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A136" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B136" s="31"/>
       <c r="C136" s="30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D136" s="31"/>
       <c r="E136" s="16"/>
@@ -8102,13 +8102,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A137" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B137" s="31"/>
       <c r="C137" s="30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D137" s="31"/>
       <c r="E137" s="16"/>
@@ -8140,13 +8140,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A138" s="33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B138" s="31"/>
       <c r="C138" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D138" s="31"/>
       <c r="E138" s="16"/>
@@ -8178,13 +8178,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A139" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B139" s="31"/>
       <c r="C139" s="30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D139" s="31"/>
       <c r="E139" s="16"/>
@@ -8216,13 +8216,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A140" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B140" s="31"/>
       <c r="C140" s="30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D140" s="31"/>
       <c r="E140" s="16"/>
@@ -8254,13 +8254,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A141" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B141" s="31"/>
       <c r="C141" s="30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D141" s="31"/>
       <c r="E141" s="16"/>
@@ -8292,13 +8292,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A142" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B142" s="31"/>
       <c r="C142" s="30" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D142" s="31"/>
       <c r="E142" s="16"/>
@@ -8330,13 +8330,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A143" s="33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B143" s="31"/>
       <c r="C143" s="30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D143" s="31"/>
       <c r="E143" s="16"/>
@@ -8368,13 +8368,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A144" s="33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B144" s="31"/>
       <c r="C144" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D144" s="31"/>
       <c r="E144" s="16"/>
@@ -8406,13 +8406,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A145" s="33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B145" s="31"/>
       <c r="C145" s="30" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D145" s="31"/>
       <c r="E145" s="16"/>
@@ -8444,13 +8444,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A146" s="33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B146" s="31"/>
       <c r="C146" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D146" s="31"/>
       <c r="E146" s="16"/>
@@ -8482,13 +8482,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A147" s="33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B147" s="31"/>
       <c r="C147" s="30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D147" s="31"/>
       <c r="E147" s="16"/>
@@ -8520,13 +8520,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A148" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B148" s="31"/>
       <c r="C148" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D148" s="31"/>
       <c r="E148" s="16"/>
@@ -8558,13 +8558,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A149" s="33" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B149" s="31"/>
       <c r="C149" s="30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D149" s="31"/>
       <c r="E149" s="16"/>
@@ -8596,13 +8596,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A150" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B150" s="31"/>
       <c r="C150" s="30" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D150" s="31"/>
       <c r="E150" s="16"/>
@@ -8634,13 +8634,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A151" s="33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B151" s="31"/>
       <c r="C151" s="30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D151" s="31"/>
       <c r="E151" s="16"/>
@@ -8672,13 +8672,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A152" s="33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B152" s="31"/>
       <c r="C152" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D152" s="31"/>
       <c r="E152" s="16"/>
@@ -8710,13 +8710,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A153" s="33" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B153" s="31"/>
       <c r="C153" s="30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D153" s="31"/>
       <c r="E153" s="16"/>
@@ -8748,13 +8748,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A154" s="33" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B154" s="31"/>
       <c r="C154" s="30" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D154" s="31"/>
       <c r="E154" s="16"/>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A155" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B155" s="31"/>
       <c r="C155" s="30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D155" s="31"/>
       <c r="E155" s="16"/>
@@ -8824,13 +8824,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A156" s="33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B156" s="31"/>
       <c r="C156" s="30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D156" s="31"/>
       <c r="E156" s="16"/>
@@ -8862,13 +8862,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A157" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B157" s="31"/>
       <c r="C157" s="30" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D157" s="31"/>
       <c r="E157" s="16"/>
@@ -8900,13 +8900,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A158" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B158" s="31"/>
       <c r="C158" s="30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D158" s="31"/>
       <c r="E158" s="16"/>
@@ -8938,13 +8938,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A159" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B159" s="31"/>
       <c r="C159" s="30" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D159" s="31"/>
       <c r="E159" s="16"/>
@@ -8976,13 +8976,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A160" s="33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B160" s="31"/>
       <c r="C160" s="30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D160" s="31"/>
       <c r="E160" s="16"/>
@@ -9014,13 +9014,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A161" s="33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B161" s="31"/>
       <c r="C161" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D161" s="31"/>
       <c r="E161" s="16"/>
@@ -9052,13 +9052,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A162" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B162" s="31"/>
       <c r="C162" s="30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D162" s="31"/>
       <c r="E162" s="16"/>
@@ -9090,13 +9090,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A163" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B163" s="31"/>
       <c r="C163" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D163" s="31"/>
       <c r="E163" s="16"/>
@@ -9128,13 +9128,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A164" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B164" s="31"/>
       <c r="C164" s="30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D164" s="31"/>
       <c r="E164" s="16"/>
@@ -9166,13 +9166,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A165" s="33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B165" s="31"/>
       <c r="C165" s="30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D165" s="31"/>
       <c r="E165" s="16"/>
@@ -9204,13 +9204,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A166" s="33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B166" s="31"/>
       <c r="C166" s="30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D166" s="31"/>
       <c r="E166" s="16"/>
@@ -9242,13 +9242,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A167" s="33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B167" s="31"/>
       <c r="C167" s="30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D167" s="31"/>
       <c r="E167" s="16"/>
@@ -9280,13 +9280,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A168" s="33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B168" s="31"/>
       <c r="C168" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D168" s="31"/>
       <c r="E168" s="16"/>
@@ -9318,13 +9318,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A169" s="33" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B169" s="31"/>
       <c r="C169" s="30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D169" s="31"/>
       <c r="E169" s="16"/>
@@ -9356,13 +9356,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A170" s="33" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B170" s="31"/>
       <c r="C170" s="30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D170" s="31"/>
       <c r="E170" s="16"/>
@@ -9394,13 +9394,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A171" s="33" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B171" s="31"/>
       <c r="C171" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D171" s="31"/>
       <c r="E171" s="16"/>
@@ -9432,13 +9432,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A172" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B172" s="31"/>
       <c r="C172" s="30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D172" s="31"/>
       <c r="E172" s="16"/>
@@ -9470,13 +9470,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A173" s="33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B173" s="31"/>
       <c r="C173" s="30" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D173" s="31"/>
       <c r="E173" s="16"/>
@@ -9508,13 +9508,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:29" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:29" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A174" s="33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B174" s="31"/>
       <c r="C174" s="30" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D174" s="31"/>
       <c r="E174" s="16"/>
@@ -9546,13 +9546,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A175" s="33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B175" s="31"/>
       <c r="C175" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D175" s="31"/>
       <c r="E175" s="16"/>
@@ -9584,13 +9584,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:29" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:29" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A176" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B176" s="31"/>
       <c r="C176" s="30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D176" s="31"/>
       <c r="E176" s="16"/>
@@ -9622,13 +9622,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A177" s="33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B177" s="31"/>
       <c r="C177" s="30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D177" s="31"/>
       <c r="E177" s="16"/>
@@ -9660,13 +9660,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A178" s="33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B178" s="31"/>
       <c r="C178" s="30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D178" s="31"/>
       <c r="E178" s="16"/>
@@ -9698,13 +9698,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A179" s="33" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B179" s="31"/>
       <c r="C179" s="30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D179" s="31"/>
       <c r="E179" s="16"/>
@@ -9736,13 +9736,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A180" s="33" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B180" s="31"/>
       <c r="C180" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D180" s="31"/>
       <c r="E180" s="16"/>
@@ -9774,13 +9774,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A181" s="33" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B181" s="31"/>
       <c r="C181" s="30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D181" s="31"/>
       <c r="E181" s="16"/>
@@ -9812,13 +9812,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A182" s="33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B182" s="31"/>
       <c r="C182" s="30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D182" s="31"/>
       <c r="E182" s="16"/>
@@ -9850,13 +9850,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A183" s="33" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B183" s="31"/>
       <c r="C183" s="30" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D183" s="31"/>
       <c r="E183" s="16"/>
@@ -9888,13 +9888,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A184" s="33" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B184" s="31"/>
       <c r="C184" s="30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D184" s="31"/>
       <c r="E184" s="16"/>
@@ -9926,13 +9926,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A185" s="33" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B185" s="31"/>
       <c r="C185" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D185" s="31"/>
       <c r="E185" s="16"/>
@@ -9964,13 +9964,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A186" s="33" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B186" s="31"/>
       <c r="C186" s="30" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D186" s="31"/>
       <c r="E186" s="16"/>
@@ -10002,13 +10002,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A187" s="33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B187" s="31"/>
       <c r="C187" s="30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D187" s="31"/>
       <c r="E187" s="16"/>
@@ -10040,13 +10040,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A188" s="33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B188" s="31"/>
       <c r="C188" s="30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D188" s="31"/>
       <c r="E188" s="16"/>
@@ -10078,13 +10078,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A189" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B189" s="31"/>
       <c r="C189" s="30" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D189" s="31"/>
       <c r="E189" s="16"/>
@@ -10116,13 +10116,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A190" s="33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B190" s="31"/>
       <c r="C190" s="30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D190" s="31"/>
       <c r="E190" s="16"/>
@@ -10154,13 +10154,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A191" s="33" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B191" s="31"/>
       <c r="C191" s="30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D191" s="31"/>
       <c r="E191" s="16"/>
@@ -10192,13 +10192,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A192" s="33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B192" s="31"/>
       <c r="C192" s="30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D192" s="31"/>
       <c r="E192" s="16"/>
@@ -10230,13 +10230,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A193" s="33" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B193" s="31"/>
       <c r="C193" s="30" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D193" s="31"/>
       <c r="E193" s="16"/>
@@ -10268,13 +10268,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A194" s="33" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B194" s="31"/>
       <c r="C194" s="30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D194" s="31"/>
       <c r="E194" s="16"/>
@@ -10306,13 +10306,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A195" s="33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B195" s="31"/>
       <c r="C195" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D195" s="31"/>
       <c r="E195" s="16"/>
@@ -10344,13 +10344,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A196" s="33" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B196" s="31"/>
       <c r="C196" s="30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D196" s="31"/>
       <c r="E196" s="16"/>
@@ -10382,13 +10382,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A197" s="33" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B197" s="31"/>
       <c r="C197" s="30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D197" s="31"/>
       <c r="E197" s="16"/>
@@ -10420,13 +10420,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A198" s="33" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B198" s="31"/>
       <c r="C198" s="30" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D198" s="31"/>
       <c r="E198" s="16"/>
@@ -10458,13 +10458,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:29" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:29" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A199" s="53" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B199" s="54"/>
       <c r="C199" s="55" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D199" s="54"/>
       <c r="E199" s="56"/>
@@ -10493,7 +10493,7 @@
       <c r="AB199" s="79"/>
       <c r="AC199" s="80"/>
     </row>
-    <row r="202" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:29" x14ac:dyDescent="0.25">
       <c r="E202" s="81">
         <f>SUBTOTAL(109,E2:E199)</f>
         <v>0</v>
